--- a/biology/Histoire de la zoologie et de la botanique/Charles_Frederick_Tyrwhitt-Drake/Charles_Frederick_Tyrwhitt-Drake.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Frederick_Tyrwhitt-Drake/Charles_Frederick_Tyrwhitt-Drake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Frederick Tyrwhitt-Drake (Amersham, 2 janvier 1846-Jérusalem, 23 juin 1874) est un naturaliste et explorateur britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Cambridge mais en raison de sa mauvaise santé passe les hivers 1866 et 1867 au Maroc où il s'occupe de chasser et de récolter des espèces naturelles. Il y apprend aussi l'arabe.   
 Il accompagne Richard Francis Burton sur le Nil (1868), puis voyage au Sinaï. En 1869, il effectue un périple à pied à partir de Suez, parcourt le désert de Tih et le Néguev et les parties alors inconnus d'Edom et de Moab. Avec Claude Reignier Conder, il visite la Palestine, la Syrie, la Grèce et la Turquie et revient en Palestine en 1870 pour étudier les pierres de Hama.  Il accompagne ensuite de nouveau Burton, alors consul à Damas, dans une expédition dans les régions volcaniques, à l'est de la ville puis explore les hautes montagnes de Syrie.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Unexplored Syria, avec Richard Francis Burton, 1872
 Modern Jerusalem, 1875
